--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2520404.366642803</v>
+        <v>2535078.714107052</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3254445.780230136</v>
+        <v>3254445.780230133</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -712,19 +712,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>98.74855378848305</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>117.5784330035868</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>90.36004757168706</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,16 +788,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>65.5944526828373</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>86.85270025971595</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>189.66835280074</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>205.5810588664029</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>207.0368788505634</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.31110394229523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>148.6429936570148</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>240.8591580335054</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>54.74273027722643</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
         <v>251.1547862223006</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.454476553027955</v>
       </c>
       <c r="T13" t="n">
         <v>223.3729047207587</v>
@@ -1587,13 +1587,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>193.7787769293024</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>412.9169039459368</v>
@@ -1627,7 +1627,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.651863114966</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>59.83305400077138</v>
       </c>
       <c r="X14" t="n">
-        <v>44.31431485218008</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>261.4547782353045</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>68.00982864079472</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>381.0522919475848</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>81.42169556711002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>165.0140383262328</v>
       </c>
       <c r="U19" t="n">
-        <v>225.5650375952926</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>264.8835242011452</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>217.239512026216</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,10 +2177,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664349</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958679</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183532</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>225.5650375952924</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>228.1641319420654</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>34.22657642243659</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U23" t="n">
-        <v>130.5446252133667</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I24" t="n">
-        <v>36.28891401906289</v>
+        <v>36.28891401906288</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.388042077384824</v>
+        <v>4.38804207738481</v>
       </c>
       <c r="S24" t="n">
         <v>143.0320641923714</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>147.637223866425</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.248492634809</v>
+        <v>225.6587336517312</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>412.4198296272988</v>
+        <v>81.37351427872855</v>
       </c>
       <c r="H26" t="n">
         <v>309.9502217094637</v>
       </c>
       <c r="I26" t="n">
-        <v>99.33258322459722</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U26" t="n">
-        <v>31.21204198876988</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I27" t="n">
-        <v>36.28891401906289</v>
+        <v>36.28891401906288</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.388042077384824</v>
+        <v>4.38804207738481</v>
       </c>
       <c r="S27" t="n">
         <v>143.0320641923714</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>8.410300211327128</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.931832696655007</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>186.3898970365823</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I29" t="n">
-        <v>99.33258322459722</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1150202768096</v>
+        <v>130.5446252133676</v>
       </c>
       <c r="V29" t="n">
-        <v>313.7644428073316</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I30" t="n">
-        <v>36.28891401906289</v>
+        <v>36.28891401906288</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.388042077384824</v>
+        <v>4.38804207738481</v>
       </c>
       <c r="S30" t="n">
         <v>143.0320641923714</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>100.8067841351866</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>281.6141721431426</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U32" t="n">
-        <v>130.5446252133676</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>202.6211057468018</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I33" t="n">
-        <v>36.28891401906289</v>
+        <v>36.28891401906288</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.388042077384824</v>
+        <v>4.38804207738481</v>
       </c>
       <c r="S33" t="n">
         <v>143.0320641923714</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>140.5122218294828</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>248.721723986387</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1150202768096</v>
+        <v>125.9838675534764</v>
       </c>
       <c r="V35" t="n">
-        <v>207.1818634066916</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I36" t="n">
-        <v>36.28891401906289</v>
+        <v>36.28891401906288</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.388042077384824</v>
+        <v>4.38804207738481</v>
       </c>
       <c r="S36" t="n">
         <v>143.0320641923714</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U37" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.8016643219871</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.67026450064691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.4198296272988</v>
+        <v>399.6386487484901</v>
       </c>
       <c r="H38" t="n">
         <v>309.9502217094637</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>130.5446252133676</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I39" t="n">
-        <v>36.28891401906289</v>
+        <v>36.28891401906288</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.388042077384824</v>
+        <v>4.38804207738481</v>
       </c>
       <c r="S39" t="n">
         <v>143.0320641923714</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S40" t="n">
         <v>201.4801154596064</v>
       </c>
       <c r="T40" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.248492634809</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>255.2725351337622</v>
+        <v>95.54993587302702</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U41" t="n">
-        <v>31.21204198876988</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>119.320445575798</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>28.6185866320415</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U43" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>170.2296522567777</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>173.4985571779251</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>99.33258322459722</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T44" t="n">
-        <v>189.3798266460208</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U44" t="n">
         <v>251.1150202768096</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>119.2319349024168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H46" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>11.8318822963486</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.931832696655022</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T46" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.3558523848238</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C2" t="n">
-        <v>266.3558523848238</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3558523848238</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4360,22 +4360,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>366.1018663125844</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>366.1018663125844</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>366.1018663125844</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X2" t="n">
-        <v>266.3558523848238</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.3558523848238</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>627.7355178317791</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="C3" t="n">
-        <v>627.7355178317791</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="D3" t="n">
-        <v>627.7355178317791</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>627.7355178317791</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W3" t="n">
-        <v>627.7355178317791</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X3" t="n">
-        <v>627.7355178317791</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y3" t="n">
-        <v>627.7355178317791</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
         <v>19.28114311021272</v>
@@ -4509,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.5536560184564</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5536560184564</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>104.5536560184564</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5536560184564</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>97.60815526925295</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4600,19 +4600,19 @@
         <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>348.0024326625565</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.5536560184564</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>587.9903182850353</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C6" t="n">
-        <v>413.5372890039083</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D6" t="n">
-        <v>413.5372890039083</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E6" t="n">
-        <v>254.2998339984528</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F6" t="n">
-        <v>107.7652760253378</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>107.7652760253378</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,16 +4652,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X6" t="n">
-        <v>756.2056553051034</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2056553051034</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4767,10 +4767,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E8" t="n">
-        <v>746.3079049238204</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F8" t="n">
-        <v>502.8591282797204</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4919,16 +4919,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="X9" t="n">
-        <v>277.6047704292607</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y9" t="n">
-        <v>69.84447166430675</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.305065052698</v>
+        <v>1967.081094457212</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.342548112286</v>
+        <v>1598.1185775168</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.076849505535</v>
+        <v>1239.852878910049</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.288596907291</v>
+        <v>854.0646263118051</v>
       </c>
       <c r="F11" t="n">
-        <v>809.3026921176836</v>
+        <v>854.0646263118051</v>
       </c>
       <c r="G11" t="n">
-        <v>392.2149103541111</v>
+        <v>436.9768445482326</v>
       </c>
       <c r="H11" t="n">
-        <v>73.9917951266205</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403564</v>
+        <v>262.6316941403559</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604011</v>
+        <v>666.0988071604007</v>
       </c>
       <c r="L11" t="n">
         <v>1218.912065406599</v>
@@ -5068,25 +5068,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T11" t="n">
-        <v>3644.294069182311</v>
+        <v>3328.574857095565</v>
       </c>
       <c r="U11" t="n">
-        <v>3390.602365927462</v>
+        <v>3074.883153840716</v>
       </c>
       <c r="V11" t="n">
-        <v>3059.539478583892</v>
+        <v>2743.820266497145</v>
       </c>
       <c r="W11" t="n">
-        <v>2706.770823313777</v>
+        <v>2743.820266497145</v>
       </c>
       <c r="X11" t="n">
-        <v>2333.305065052698</v>
+        <v>2743.820266497145</v>
       </c>
       <c r="Y11" t="n">
-        <v>2333.305065052698</v>
+        <v>2353.680934521333</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914995</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
         <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J12" t="n">
         <v>192.6510469835159</v>
       </c>
       <c r="K12" t="n">
-        <v>522.0794512893252</v>
+        <v>339.3088747251214</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3090493050186</v>
+        <v>843.6704145912393</v>
       </c>
       <c r="M12" t="n">
-        <v>1299.854398772123</v>
+        <v>1484.215764058343</v>
       </c>
       <c r="N12" t="n">
-        <v>1973.060091024904</v>
+        <v>2157.421456311125</v>
       </c>
       <c r="O12" t="n">
-        <v>2522.496099777626</v>
+        <v>2316.933768979885</v>
       </c>
       <c r="P12" t="n">
-        <v>2631.185727304925</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q12" t="n">
         <v>2656.336852567651</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="C13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="D13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="E13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="F13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K13" t="n">
         <v>175.03972472223</v>
@@ -5226,25 +5226,25 @@
         <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585963</v>
+        <v>1071.44720734048</v>
       </c>
       <c r="T13" t="n">
-        <v>848.2972798983279</v>
+        <v>845.818010652845</v>
       </c>
       <c r="U13" t="n">
-        <v>559.1451034760078</v>
+        <v>556.6658342305248</v>
       </c>
       <c r="V13" t="n">
-        <v>559.1451034760078</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="W13" t="n">
-        <v>269.7279334390471</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="X13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1922.31916026309</v>
+        <v>2452.998035652587</v>
       </c>
       <c r="C14" t="n">
-        <v>1553.356643322678</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="D14" t="n">
-        <v>1195.090944715928</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E14" t="n">
-        <v>809.3026921176836</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="F14" t="n">
-        <v>809.3026921176836</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="G14" t="n">
-        <v>392.2149103541111</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H14" t="n">
-        <v>73.99179512662052</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
         <v>73.99179512662052</v>
@@ -5284,7 +5284,7 @@
         <v>666.0988071604012</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M14" t="n">
         <v>1850.62987638991</v>
@@ -5305,25 +5305,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>3328.574857095565</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U14" t="n">
-        <v>3074.883153840716</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V14" t="n">
-        <v>2743.820266497145</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W14" t="n">
-        <v>2743.820266497145</v>
+        <v>2839.597875716709</v>
       </c>
       <c r="X14" t="n">
-        <v>2699.058332303024</v>
+        <v>2839.597875716709</v>
       </c>
       <c r="Y14" t="n">
-        <v>2308.919000327212</v>
+        <v>2839.597875716709</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>73.99179512662052</v>
       </c>
       <c r="K15" t="n">
-        <v>403.4201994324299</v>
+        <v>141.599614789977</v>
       </c>
       <c r="L15" t="n">
-        <v>907.7817392985478</v>
+        <v>278.8292128056703</v>
       </c>
       <c r="M15" t="n">
-        <v>1548.327088765652</v>
+        <v>919.3745622727743</v>
       </c>
       <c r="N15" t="n">
-        <v>1842.143315357587</v>
+        <v>1592.580254525556</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>2142.016263278278</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2565.984031759114</v>
       </c>
       <c r="Q15" t="n">
         <v>2656.336852567651</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.99179512662052</v>
+        <v>390.5117337136302</v>
       </c>
       <c r="C16" t="n">
-        <v>73.99179512662052</v>
+        <v>390.5117337136302</v>
       </c>
       <c r="D16" t="n">
-        <v>73.99179512662052</v>
+        <v>390.5117337136302</v>
       </c>
       <c r="E16" t="n">
-        <v>73.99179512662052</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="F16" t="n">
-        <v>73.99179512662052</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G16" t="n">
         <v>73.99179512662052</v>
@@ -5463,25 +5463,25 @@
         <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585963</v>
+        <v>866.4861918383683</v>
       </c>
       <c r="T16" t="n">
-        <v>848.2972798983279</v>
+        <v>640.8569951507333</v>
       </c>
       <c r="U16" t="n">
-        <v>584.2015443071112</v>
+        <v>640.8569951507333</v>
       </c>
       <c r="V16" t="n">
-        <v>584.2015443071112</v>
+        <v>640.8569951507333</v>
       </c>
       <c r="W16" t="n">
-        <v>294.7843742701506</v>
+        <v>572.1601985438699</v>
       </c>
       <c r="X16" t="n">
-        <v>294.7843742701506</v>
+        <v>572.1601985438699</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.99179512662052</v>
+        <v>572.1601985438699</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1571.909568269587</v>
+        <v>1998.4614202256</v>
       </c>
       <c r="C17" t="n">
-        <v>1202.947051329176</v>
+        <v>1629.498903285188</v>
       </c>
       <c r="D17" t="n">
-        <v>844.6813527224251</v>
+        <v>1271.233204678438</v>
       </c>
       <c r="E17" t="n">
-        <v>458.8931001241809</v>
+        <v>885.4449520801934</v>
       </c>
       <c r="F17" t="n">
-        <v>73.9917951266205</v>
+        <v>474.4590472905858</v>
       </c>
       <c r="G17" t="n">
-        <v>73.9917951266205</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H17" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I17" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J17" t="n">
         <v>262.6316941403561</v>
@@ -5533,7 +5533,7 @@
         <v>3025.098749216832</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q17" t="n">
         <v>3699.589756331025</v>
@@ -5542,25 +5542,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T17" t="n">
-        <v>3328.574857095564</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U17" t="n">
-        <v>3074.883153840715</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V17" t="n">
-        <v>3074.883153840715</v>
+        <v>3114.835165732606</v>
       </c>
       <c r="W17" t="n">
-        <v>2722.114498570601</v>
+        <v>2762.066510462491</v>
       </c>
       <c r="X17" t="n">
-        <v>2348.648740309521</v>
+        <v>2388.600752201412</v>
       </c>
       <c r="Y17" t="n">
-        <v>1958.509408333709</v>
+        <v>1998.4614202256</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G18" t="n">
         <v>220.8126299914996</v>
@@ -5591,28 +5591,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835158</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K18" t="n">
-        <v>522.0794512893251</v>
+        <v>232.0072486300744</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3090493050183</v>
+        <v>736.3687884961922</v>
       </c>
       <c r="M18" t="n">
-        <v>1299.854398772122</v>
+        <v>1376.914137963296</v>
       </c>
       <c r="N18" t="n">
-        <v>1973.060091024904</v>
+        <v>2050.119830216078</v>
       </c>
       <c r="O18" t="n">
-        <v>2522.496099777626</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P18" t="n">
-        <v>2631.185727304925</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q18" t="n">
         <v>2656.336852567651</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="C19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="D19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="E19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="F19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K19" t="n">
         <v>175.03972472223</v>
@@ -5703,22 +5703,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>1073.926476585963</v>
+        <v>907.2456297917881</v>
       </c>
       <c r="U19" t="n">
-        <v>846.0830042674853</v>
+        <v>618.093453369468</v>
       </c>
       <c r="V19" t="n">
-        <v>591.3985160615985</v>
+        <v>363.4089651635811</v>
       </c>
       <c r="W19" t="n">
-        <v>301.9813460246378</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="X19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1646.119432884795</v>
+        <v>1865.553283416327</v>
       </c>
       <c r="C20" t="n">
-        <v>1646.119432884795</v>
+        <v>1496.590766475915</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.853734278045</v>
+        <v>1138.325067869165</v>
       </c>
       <c r="E20" t="n">
-        <v>902.0654816798005</v>
+        <v>752.5368152709202</v>
       </c>
       <c r="F20" t="n">
-        <v>491.079576890193</v>
+        <v>341.5509104813127</v>
       </c>
       <c r="G20" t="n">
         <v>73.9917951266205</v>
@@ -5752,7 +5752,7 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403564</v>
       </c>
       <c r="K20" t="n">
         <v>666.0988071604011</v>
@@ -5767,7 +5767,7 @@
         <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216831</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
         <v>3454.413795556125</v>
@@ -5785,19 +5785,19 @@
         <v>3699.589756331025</v>
       </c>
       <c r="U20" t="n">
-        <v>3480.155905799494</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V20" t="n">
-        <v>3149.093018455923</v>
+        <v>3368.526868987454</v>
       </c>
       <c r="W20" t="n">
-        <v>2796.324363185809</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X20" t="n">
-        <v>2422.858604924729</v>
+        <v>2642.29245545626</v>
       </c>
       <c r="Y20" t="n">
-        <v>2032.719272948917</v>
+        <v>2252.153123480448</v>
       </c>
     </row>
     <row r="21">
@@ -5819,10 +5819,10 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914996</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H21" t="n">
         <v>119.8966521363041</v>
@@ -5831,25 +5831,25 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835158</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K21" t="n">
-        <v>316.5171204915846</v>
+        <v>403.4201994324299</v>
       </c>
       <c r="L21" t="n">
-        <v>453.7467185072778</v>
+        <v>907.7817392985478</v>
       </c>
       <c r="M21" t="n">
-        <v>1094.292067974382</v>
+        <v>1548.327088765652</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.497760227163</v>
+        <v>2221.532781018434</v>
       </c>
       <c r="O21" t="n">
-        <v>2316.933768979885</v>
+        <v>2524.910283838376</v>
       </c>
       <c r="P21" t="n">
-        <v>2425.623396507183</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q21" t="n">
         <v>2656.336852567651</v>
@@ -5913,19 +5913,19 @@
         <v>73.9917951266205</v>
       </c>
       <c r="K22" t="n">
-        <v>175.0397247222299</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230478</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422853</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783891</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669875</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P22" t="n">
         <v>1070.508157165603</v>
@@ -5940,16 +5940,16 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>1073.926476585963</v>
+        <v>848.2972798983279</v>
       </c>
       <c r="U22" t="n">
-        <v>846.0830042674853</v>
+        <v>559.1451034760078</v>
       </c>
       <c r="V22" t="n">
-        <v>591.3985160615985</v>
+        <v>304.4606152701209</v>
       </c>
       <c r="W22" t="n">
-        <v>301.9813460246378</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="X22" t="n">
         <v>73.9917951266205</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2339.782740888894</v>
+        <v>1970.820223948482</v>
       </c>
       <c r="C23" t="n">
         <v>1970.820223948482</v>
@@ -5983,13 +5983,13 @@
         <v>399.1946814616588</v>
       </c>
       <c r="H23" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I23" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J23" t="n">
-        <v>316.5202242826242</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K23" t="n">
         <v>782.5847574885288</v>
@@ -6007,34 +6007,34 @@
         <v>3476.372603996238</v>
       </c>
       <c r="P23" t="n">
-        <v>3976.45275961495</v>
+        <v>3976.452759614951</v>
       </c>
       <c r="Q23" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373407</v>
       </c>
       <c r="R23" t="n">
-        <v>4305.682471594871</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="S23" t="n">
-        <v>4305.682471594871</v>
+        <v>4271.11017217827</v>
       </c>
       <c r="T23" t="n">
-        <v>4305.682471594871</v>
+        <v>4058.508232496322</v>
       </c>
       <c r="U23" t="n">
-        <v>4173.819213803592</v>
+        <v>3804.856696863181</v>
       </c>
       <c r="V23" t="n">
-        <v>3842.756326460022</v>
+        <v>3473.79380951961</v>
       </c>
       <c r="W23" t="n">
-        <v>3489.987671189907</v>
+        <v>3121.025154249496</v>
       </c>
       <c r="X23" t="n">
-        <v>3116.521912928828</v>
+        <v>2747.559395988416</v>
       </c>
       <c r="Y23" t="n">
-        <v>2726.382580953016</v>
+        <v>2357.420064012604</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I24" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J24" t="n">
-        <v>104.8187222999256</v>
+        <v>104.8187222999257</v>
       </c>
       <c r="K24" t="n">
-        <v>476.7640804989354</v>
+        <v>416.0232940055636</v>
       </c>
       <c r="L24" t="n">
-        <v>1038.294911792461</v>
+        <v>977.5541252990897</v>
       </c>
       <c r="M24" t="n">
-        <v>1284.506114741579</v>
+        <v>1223.765328248207</v>
       </c>
       <c r="N24" t="n">
-        <v>1551.642440524207</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O24" t="n">
         <v>2102.983103689781</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.11364943189743</v>
+        <v>405.1664717721401</v>
       </c>
       <c r="C25" t="n">
-        <v>86.11364943189743</v>
+        <v>236.2302888442332</v>
       </c>
       <c r="D25" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="E25" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="F25" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="G25" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="H25" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I25" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J25" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="K25" t="n">
-        <v>212.8076375348878</v>
+        <v>212.8076375348879</v>
       </c>
       <c r="L25" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962464</v>
       </c>
       <c r="M25" t="n">
-        <v>670.3304700620229</v>
+        <v>670.330470062023</v>
       </c>
       <c r="N25" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692336</v>
       </c>
       <c r="O25" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P25" t="n">
-        <v>1267.373942480778</v>
+        <v>1267.373942480779</v>
       </c>
       <c r="Q25" t="n">
         <v>1289.276287324572</v>
@@ -6174,25 +6174,25 @@
         <v>1289.276287324572</v>
       </c>
       <c r="S25" t="n">
-        <v>1289.276287324572</v>
+        <v>1085.761019183556</v>
       </c>
       <c r="T25" t="n">
-        <v>1289.276287324572</v>
+        <v>861.0941374698859</v>
       </c>
       <c r="U25" t="n">
-        <v>1000.13639577426</v>
+        <v>633.1560226701574</v>
       </c>
       <c r="V25" t="n">
-        <v>745.451907568373</v>
+        <v>633.1560226701574</v>
       </c>
       <c r="W25" t="n">
-        <v>456.0347375314124</v>
+        <v>633.1560226701574</v>
       </c>
       <c r="X25" t="n">
-        <v>456.0347375314124</v>
+        <v>405.1664717721401</v>
       </c>
       <c r="Y25" t="n">
-        <v>235.2421583878823</v>
+        <v>405.1664717721401</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2440.118683540002</v>
+        <v>2005.392523365085</v>
       </c>
       <c r="C26" t="n">
-        <v>2071.156166599591</v>
+        <v>1636.430006424674</v>
       </c>
       <c r="D26" t="n">
-        <v>1712.89046799284</v>
+        <v>1278.164307817923</v>
       </c>
       <c r="E26" t="n">
-        <v>1327.102215394596</v>
+        <v>892.3760552196791</v>
       </c>
       <c r="F26" t="n">
-        <v>916.1163106049883</v>
+        <v>481.3901504300715</v>
       </c>
       <c r="G26" t="n">
-        <v>499.5306241127672</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H26" t="n">
-        <v>186.4495920830058</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I26" t="n">
         <v>86.11364943189744</v>
       </c>
       <c r="J26" t="n">
-        <v>316.5202242826244</v>
+        <v>316.5202242826242</v>
       </c>
       <c r="K26" t="n">
-        <v>782.5847574885292</v>
+        <v>782.5847574885289</v>
       </c>
       <c r="L26" t="n">
-        <v>1413.055650717817</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M26" t="n">
         <v>2131.182543644155</v>
@@ -6256,22 +6256,22 @@
         <v>4305.682471594872</v>
       </c>
       <c r="T26" t="n">
-        <v>4305.682471594872</v>
+        <v>4093.080531912925</v>
       </c>
       <c r="U26" t="n">
-        <v>4274.155156454701</v>
+        <v>3839.428996279784</v>
       </c>
       <c r="V26" t="n">
-        <v>3943.09226911113</v>
+        <v>3508.366108936213</v>
       </c>
       <c r="W26" t="n">
-        <v>3590.323613841016</v>
+        <v>3155.597453666099</v>
       </c>
       <c r="X26" t="n">
-        <v>3216.857855579936</v>
+        <v>2782.131695405019</v>
       </c>
       <c r="Y26" t="n">
-        <v>2826.718523604124</v>
+        <v>2391.992363429207</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>601.5942054859402</v>
       </c>
       <c r="L27" t="n">
-        <v>795.9930949290417</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.252310990659</v>
+        <v>1405.712509473678</v>
       </c>
       <c r="N27" t="n">
-        <v>2196.103491068335</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O27" t="n">
-        <v>2418.261244643319</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P27" t="n">
-        <v>2577.229361417491</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q27" t="n">
         <v>2633.576141175236</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>86.11364943189744</v>
+        <v>563.5261642514848</v>
       </c>
       <c r="C28" t="n">
-        <v>86.11364943189744</v>
+        <v>394.5899813235779</v>
       </c>
       <c r="D28" t="n">
-        <v>86.11364943189744</v>
+        <v>244.4733419112422</v>
       </c>
       <c r="E28" t="n">
-        <v>86.11364943189744</v>
+        <v>96.5602483288491</v>
       </c>
       <c r="F28" t="n">
-        <v>86.11364943189744</v>
+        <v>88.06499559013483</v>
       </c>
       <c r="G28" t="n">
-        <v>86.11364943189744</v>
+        <v>88.06499559013483</v>
       </c>
       <c r="H28" t="n">
-        <v>86.11364943189744</v>
+        <v>88.06499559013483</v>
       </c>
       <c r="I28" t="n">
-        <v>86.11364943189744</v>
+        <v>88.06499559013483</v>
       </c>
       <c r="J28" t="n">
         <v>86.11364943189744</v>
@@ -6393,16 +6393,16 @@
         <v>430.4587576962464</v>
       </c>
       <c r="M28" t="n">
-        <v>670.3304700620229</v>
+        <v>670.330470062023</v>
       </c>
       <c r="N28" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692336</v>
       </c>
       <c r="O28" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P28" t="n">
-        <v>1267.373942480778</v>
+        <v>1267.373942480779</v>
       </c>
       <c r="Q28" t="n">
         <v>1289.276287324572</v>
@@ -6411,25 +6411,25 @@
         <v>1289.276287324572</v>
       </c>
       <c r="S28" t="n">
-        <v>1101.003664055297</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="T28" t="n">
-        <v>1101.003664055297</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="U28" t="n">
-        <v>811.8637725049847</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="V28" t="n">
-        <v>557.1792842990978</v>
+        <v>1034.591799118685</v>
       </c>
       <c r="W28" t="n">
-        <v>267.7621142621372</v>
+        <v>745.1746290817246</v>
       </c>
       <c r="X28" t="n">
-        <v>267.7621142621372</v>
+        <v>745.1746290817246</v>
       </c>
       <c r="Y28" t="n">
-        <v>267.7621142621372</v>
+        <v>745.1746290817246</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2440.118683540002</v>
+        <v>2339.782740888894</v>
       </c>
       <c r="C29" t="n">
-        <v>2071.156166599591</v>
+        <v>1970.820223948482</v>
       </c>
       <c r="D29" t="n">
-        <v>1712.89046799284</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="E29" t="n">
-        <v>1327.102215394596</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F29" t="n">
-        <v>916.1163106049881</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="G29" t="n">
-        <v>499.5306241127671</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H29" t="n">
-        <v>186.4495920830057</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I29" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J29" t="n">
-        <v>316.5202242826242</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K29" t="n">
         <v>782.5847574885288</v>
@@ -6481,34 +6481,34 @@
         <v>3476.372603996238</v>
       </c>
       <c r="P29" t="n">
-        <v>3976.45275961495</v>
+        <v>3976.452759614951</v>
       </c>
       <c r="Q29" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373407</v>
       </c>
       <c r="R29" t="n">
-        <v>4305.682471594871</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="S29" t="n">
-        <v>4160.908930087623</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="T29" t="n">
-        <v>4160.908930087623</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="U29" t="n">
-        <v>3907.257394454482</v>
+        <v>4173.819213803592</v>
       </c>
       <c r="V29" t="n">
-        <v>3590.323613841016</v>
+        <v>3842.756326460022</v>
       </c>
       <c r="W29" t="n">
-        <v>3590.323613841016</v>
+        <v>3489.987671189907</v>
       </c>
       <c r="X29" t="n">
-        <v>3216.857855579936</v>
+        <v>3116.521912928828</v>
       </c>
       <c r="Y29" t="n">
-        <v>2826.718523604124</v>
+        <v>2726.382580953016</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I30" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J30" t="n">
-        <v>104.8187222999256</v>
+        <v>104.8187222999257</v>
       </c>
       <c r="K30" t="n">
-        <v>476.7640804989354</v>
+        <v>416.0232940055636</v>
       </c>
       <c r="L30" t="n">
-        <v>671.1629699420369</v>
+        <v>977.5541252990897</v>
       </c>
       <c r="M30" t="n">
-        <v>917.374172891154</v>
+        <v>1223.765328248207</v>
       </c>
       <c r="N30" t="n">
-        <v>1659.0594492739</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O30" t="n">
-        <v>2271.140898932846</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P30" t="n">
-        <v>2430.109015707018</v>
+        <v>2577.229361417491</v>
       </c>
       <c r="Q30" t="n">
         <v>2633.576141175236</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>704.7772137406813</v>
+        <v>233.0035969298078</v>
       </c>
       <c r="C31" t="n">
-        <v>704.7772137406813</v>
+        <v>233.0035969298078</v>
       </c>
       <c r="D31" t="n">
-        <v>554.6605743283455</v>
+        <v>233.0035969298078</v>
       </c>
       <c r="E31" t="n">
-        <v>406.7474807459525</v>
+        <v>233.0035969298078</v>
       </c>
       <c r="F31" t="n">
-        <v>406.7474807459525</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="G31" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="H31" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I31" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J31" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="K31" t="n">
-        <v>212.8076375348878</v>
+        <v>212.8076375348879</v>
       </c>
       <c r="L31" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962464</v>
       </c>
       <c r="M31" t="n">
-        <v>670.3304700620229</v>
+        <v>670.330470062023</v>
       </c>
       <c r="N31" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692336</v>
       </c>
       <c r="O31" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P31" t="n">
-        <v>1267.373942480778</v>
+        <v>1267.373942480779</v>
       </c>
       <c r="Q31" t="n">
         <v>1289.276287324572</v>
@@ -6651,22 +6651,22 @@
         <v>1289.276287324572</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.451252844585</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.451252844585</v>
+        <v>1000.13639577426</v>
       </c>
       <c r="V31" t="n">
-        <v>932.7667646386986</v>
+        <v>745.4519075683733</v>
       </c>
       <c r="W31" t="n">
-        <v>932.7667646386986</v>
+        <v>460.9931478278252</v>
       </c>
       <c r="X31" t="n">
-        <v>704.7772137406813</v>
+        <v>233.0035969298078</v>
       </c>
       <c r="Y31" t="n">
-        <v>704.7772137406813</v>
+        <v>233.0035969298078</v>
       </c>
     </row>
     <row r="32">
@@ -6700,13 +6700,13 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J32" t="n">
-        <v>316.5202242826244</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K32" t="n">
-        <v>782.5847574885292</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L32" t="n">
-        <v>1413.055650717817</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M32" t="n">
         <v>2131.182543644155</v>
@@ -6727,16 +6727,16 @@
         <v>4305.682471594872</v>
       </c>
       <c r="S32" t="n">
-        <v>4305.682471594872</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="T32" t="n">
-        <v>4305.682471594872</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U32" t="n">
-        <v>4173.819213803592</v>
+        <v>3694.655454772535</v>
       </c>
       <c r="V32" t="n">
-        <v>3842.756326460022</v>
+        <v>3694.655454772535</v>
       </c>
       <c r="W32" t="n">
         <v>3489.987671189907</v>
@@ -6779,22 +6779,22 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J33" t="n">
-        <v>229.6488472869304</v>
+        <v>104.8187222999257</v>
       </c>
       <c r="K33" t="n">
-        <v>339.7736208434874</v>
+        <v>416.0232940055636</v>
       </c>
       <c r="L33" t="n">
-        <v>534.1725102865889</v>
+        <v>977.5541252990897</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.431726348206</v>
+        <v>1223.765328248207</v>
       </c>
       <c r="N33" t="n">
-        <v>1508.568052130834</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O33" t="n">
-        <v>2120.64950178978</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P33" t="n">
         <v>2577.229361417491</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>380.9166905122009</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="C34" t="n">
-        <v>380.9166905122009</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="D34" t="n">
-        <v>380.9166905122009</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="E34" t="n">
-        <v>233.0035969298078</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="F34" t="n">
         <v>86.11364943189744</v>
@@ -6867,16 +6867,16 @@
         <v>430.4587576962464</v>
       </c>
       <c r="M34" t="n">
-        <v>670.3304700620229</v>
+        <v>670.330470062023</v>
       </c>
       <c r="N34" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692336</v>
       </c>
       <c r="O34" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P34" t="n">
-        <v>1267.373942480778</v>
+        <v>1267.373942480779</v>
       </c>
       <c r="Q34" t="n">
         <v>1289.276287324572</v>
@@ -6888,22 +6888,22 @@
         <v>1289.276287324572</v>
       </c>
       <c r="T34" t="n">
-        <v>1289.276287324572</v>
+        <v>1147.344750123074</v>
       </c>
       <c r="U34" t="n">
-        <v>1289.276287324572</v>
+        <v>858.2048585727622</v>
       </c>
       <c r="V34" t="n">
-        <v>1034.591799118685</v>
+        <v>603.5203703668753</v>
       </c>
       <c r="W34" t="n">
-        <v>783.3577344859708</v>
+        <v>314.1032003299148</v>
       </c>
       <c r="X34" t="n">
-        <v>783.3577344859708</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="Y34" t="n">
-        <v>562.5651553424407</v>
+        <v>86.11364943189744</v>
       </c>
     </row>
     <row r="35">
@@ -6931,13 +6931,13 @@
         <v>399.1946814616588</v>
       </c>
       <c r="H35" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I35" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J35" t="n">
-        <v>316.5202242826242</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K35" t="n">
         <v>782.5847574885288</v>
@@ -6955,25 +6955,25 @@
         <v>3476.372603996238</v>
       </c>
       <c r="P35" t="n">
-        <v>3976.45275961495</v>
+        <v>3976.452759614951</v>
       </c>
       <c r="Q35" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373407</v>
       </c>
       <c r="R35" t="n">
-        <v>4305.682471594871</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="S35" t="n">
-        <v>4305.682471594871</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="T35" t="n">
-        <v>4305.682471594871</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U35" t="n">
-        <v>4052.03093596173</v>
+        <v>3821.050558533478</v>
       </c>
       <c r="V35" t="n">
-        <v>3842.756326460022</v>
+        <v>3489.987671189907</v>
       </c>
       <c r="W35" t="n">
         <v>3489.987671189907</v>
@@ -7013,25 +7013,25 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I36" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J36" t="n">
-        <v>104.8187222999256</v>
+        <v>104.8187222999257</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9434958564826</v>
+        <v>416.0232940055636</v>
       </c>
       <c r="L36" t="n">
-        <v>409.3423852995841</v>
+        <v>977.5541252990897</v>
       </c>
       <c r="M36" t="n">
-        <v>1116.601601361201</v>
+        <v>1223.765328248207</v>
       </c>
       <c r="N36" t="n">
-        <v>1858.286877743947</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O36" t="n">
-        <v>2418.261244643319</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P36" t="n">
         <v>2577.229361417491</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="C37" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="D37" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="E37" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="F37" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="G37" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="H37" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I37" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J37" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="K37" t="n">
-        <v>212.8076375348878</v>
+        <v>212.8076375348879</v>
       </c>
       <c r="L37" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962464</v>
       </c>
       <c r="M37" t="n">
-        <v>670.3304700620229</v>
+        <v>670.330470062023</v>
       </c>
       <c r="N37" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692336</v>
       </c>
       <c r="O37" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P37" t="n">
-        <v>1267.373942480778</v>
+        <v>1267.373942480779</v>
       </c>
       <c r="Q37" t="n">
         <v>1289.276287324572</v>
       </c>
       <c r="R37" t="n">
-        <v>1168.925155535959</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="S37" t="n">
-        <v>1168.925155535959</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="T37" t="n">
-        <v>1168.925155535959</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="U37" t="n">
-        <v>879.7852639856474</v>
+        <v>775.4695140605904</v>
       </c>
       <c r="V37" t="n">
-        <v>879.7852639856474</v>
+        <v>520.7850258547036</v>
       </c>
       <c r="W37" t="n">
-        <v>590.3680939486867</v>
+        <v>231.367855817743</v>
       </c>
       <c r="X37" t="n">
-        <v>362.3785430506694</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="Y37" t="n">
-        <v>267.7621142621371</v>
+        <v>86.11364943189744</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2339.782740888894</v>
+        <v>2326.872457172925</v>
       </c>
       <c r="C38" t="n">
-        <v>1970.820223948482</v>
+        <v>1957.909940232514</v>
       </c>
       <c r="D38" t="n">
-        <v>1612.554525341732</v>
+        <v>1599.644241625763</v>
       </c>
       <c r="E38" t="n">
-        <v>1226.766272743487</v>
+        <v>1213.855989027519</v>
       </c>
       <c r="F38" t="n">
-        <v>815.7803679538799</v>
+        <v>802.8700842379114</v>
       </c>
       <c r="G38" t="n">
         <v>399.1946814616588</v>
@@ -7174,10 +7174,10 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J38" t="n">
-        <v>316.5202242826244</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K38" t="n">
-        <v>782.584757488529</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L38" t="n">
         <v>1413.055650717816</v>
@@ -7201,25 +7201,25 @@
         <v>4305.682471594872</v>
       </c>
       <c r="S38" t="n">
-        <v>4305.682471594872</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="T38" t="n">
-        <v>4305.682471594872</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="U38" t="n">
-        <v>4173.819213803592</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="V38" t="n">
-        <v>3842.756326460022</v>
+        <v>3829.846042744053</v>
       </c>
       <c r="W38" t="n">
-        <v>3489.987671189907</v>
+        <v>3477.077387473939</v>
       </c>
       <c r="X38" t="n">
-        <v>3116.521912928828</v>
+        <v>3103.611629212859</v>
       </c>
       <c r="Y38" t="n">
-        <v>2726.382580953016</v>
+        <v>2713.472297237047</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J39" t="n">
-        <v>104.8187222999256</v>
+        <v>104.8187222999257</v>
       </c>
       <c r="K39" t="n">
-        <v>214.9434958564826</v>
+        <v>416.0232940055636</v>
       </c>
       <c r="L39" t="n">
-        <v>409.3423852995841</v>
+        <v>977.5541252990897</v>
       </c>
       <c r="M39" t="n">
-        <v>1116.601601361201</v>
+        <v>1223.765328248207</v>
       </c>
       <c r="N39" t="n">
-        <v>1858.286877743947</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O39" t="n">
-        <v>2418.261244643319</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P39" t="n">
         <v>2577.229361417491</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>86.11364943189744</v>
+        <v>351.7653582061823</v>
       </c>
       <c r="C40" t="n">
-        <v>86.11364943189744</v>
+        <v>351.7653582061823</v>
       </c>
       <c r="D40" t="n">
-        <v>86.11364943189744</v>
+        <v>351.7653582061823</v>
       </c>
       <c r="E40" t="n">
-        <v>86.11364943189744</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="F40" t="n">
-        <v>86.11364943189744</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="G40" t="n">
-        <v>86.11364943189744</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="H40" t="n">
-        <v>86.11364943189744</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="I40" t="n">
         <v>86.11364943189744</v>
@@ -7341,43 +7341,43 @@
         <v>430.4587576962464</v>
       </c>
       <c r="M40" t="n">
-        <v>670.3304700620229</v>
+        <v>670.330470062023</v>
       </c>
       <c r="N40" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692336</v>
       </c>
       <c r="O40" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P40" t="n">
-        <v>1267.373942480778</v>
+        <v>1267.373942480779</v>
       </c>
       <c r="Q40" t="n">
         <v>1289.276287324572</v>
       </c>
       <c r="R40" t="n">
-        <v>1289.276287324572</v>
+        <v>1168.92515553596</v>
       </c>
       <c r="S40" t="n">
-        <v>1085.761019183555</v>
+        <v>965.4098873949431</v>
       </c>
       <c r="T40" t="n">
-        <v>861.0941374698857</v>
+        <v>965.4098873949431</v>
       </c>
       <c r="U40" t="n">
-        <v>571.9542459195736</v>
+        <v>676.269995844631</v>
       </c>
       <c r="V40" t="n">
-        <v>571.9542459195736</v>
+        <v>676.269995844631</v>
       </c>
       <c r="W40" t="n">
-        <v>314.1032003299148</v>
+        <v>579.7549091041997</v>
       </c>
       <c r="X40" t="n">
-        <v>86.11364943189744</v>
+        <v>351.7653582061823</v>
       </c>
       <c r="Y40" t="n">
-        <v>86.11364943189744</v>
+        <v>351.7653582061823</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2440.118683540002</v>
+        <v>2071.156166599591</v>
       </c>
       <c r="C41" t="n">
         <v>2071.156166599591</v>
@@ -7399,25 +7399,25 @@
         <v>1327.102215394596</v>
       </c>
       <c r="F41" t="n">
-        <v>916.1163106049883</v>
+        <v>916.1163106049881</v>
       </c>
       <c r="G41" t="n">
-        <v>499.5306241127672</v>
+        <v>499.5306241127671</v>
       </c>
       <c r="H41" t="n">
-        <v>186.4495920830058</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="I41" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J41" t="n">
-        <v>316.5202242826244</v>
+        <v>316.5202242826242</v>
       </c>
       <c r="K41" t="n">
-        <v>782.5847574885292</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L41" t="n">
-        <v>1413.055650717817</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M41" t="n">
         <v>2131.182543644155</v>
@@ -7429,34 +7429,34 @@
         <v>3476.372603996238</v>
       </c>
       <c r="P41" t="n">
-        <v>3976.452759614951</v>
+        <v>3976.45275961495</v>
       </c>
       <c r="Q41" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.770370373406</v>
       </c>
       <c r="R41" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594871</v>
       </c>
       <c r="S41" t="n">
-        <v>4305.682471594872</v>
+        <v>4160.908930087623</v>
       </c>
       <c r="T41" t="n">
-        <v>4305.682471594872</v>
+        <v>3948.306990405676</v>
       </c>
       <c r="U41" t="n">
-        <v>4274.155156454701</v>
+        <v>3694.655454772535</v>
       </c>
       <c r="V41" t="n">
-        <v>3943.09226911113</v>
+        <v>3574.129752170718</v>
       </c>
       <c r="W41" t="n">
-        <v>3590.323613841016</v>
+        <v>3221.361096900604</v>
       </c>
       <c r="X41" t="n">
-        <v>3216.857855579936</v>
+        <v>2847.895338639524</v>
       </c>
       <c r="Y41" t="n">
-        <v>2826.718523604124</v>
+        <v>2457.756006663712</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I42" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1286482900449</v>
+        <v>104.8187222999256</v>
       </c>
       <c r="K42" t="n">
-        <v>270.2534218466019</v>
+        <v>416.023294005564</v>
       </c>
       <c r="L42" t="n">
-        <v>831.7842531401279</v>
+        <v>977.5541252990901</v>
       </c>
       <c r="M42" t="n">
-        <v>1539.043469201745</v>
+        <v>1223.765328248207</v>
       </c>
       <c r="N42" t="n">
-        <v>1806.179794984373</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O42" t="n">
-        <v>2418.261244643319</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P42" t="n">
         <v>2577.229361417491</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="C43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="D43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="E43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="F43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="G43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="H43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="I43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="K43" t="n">
-        <v>212.8076375348879</v>
+        <v>212.8076375348878</v>
       </c>
       <c r="L43" t="n">
-        <v>430.4587576962464</v>
+        <v>430.4587576962463</v>
       </c>
       <c r="M43" t="n">
         <v>670.3304700620229</v>
@@ -7593,28 +7593,28 @@
         <v>1289.276287324572</v>
       </c>
       <c r="R43" t="n">
-        <v>1260.368624059884</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="S43" t="n">
-        <v>1260.368624059884</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="T43" t="n">
-        <v>1260.368624059884</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="U43" t="n">
-        <v>971.2287325095715</v>
+        <v>775.4695140605902</v>
       </c>
       <c r="V43" t="n">
-        <v>716.5442443036846</v>
+        <v>603.5203703668753</v>
       </c>
       <c r="W43" t="n">
-        <v>716.5442443036846</v>
+        <v>314.1032003299148</v>
       </c>
       <c r="X43" t="n">
-        <v>488.5546934056673</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="Y43" t="n">
-        <v>267.7621142621372</v>
+        <v>86.11364943189743</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2026.701708859132</v>
+        <v>1860.618981857836</v>
       </c>
       <c r="C44" t="n">
-        <v>1657.739191918721</v>
+        <v>1685.367914001346</v>
       </c>
       <c r="D44" t="n">
-        <v>1299.47349331197</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="E44" t="n">
-        <v>913.685240713726</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F44" t="n">
-        <v>502.6993359241185</v>
+        <v>916.1163106049881</v>
       </c>
       <c r="G44" t="n">
-        <v>86.11364943189743</v>
+        <v>499.5306241127671</v>
       </c>
       <c r="H44" t="n">
-        <v>86.11364943189743</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="I44" t="n">
         <v>86.11364943189743</v>
@@ -7675,25 +7675,25 @@
         <v>4305.682471594871</v>
       </c>
       <c r="S44" t="n">
-        <v>4305.682471594871</v>
+        <v>4160.908930087623</v>
       </c>
       <c r="T44" t="n">
-        <v>4114.389717406972</v>
+        <v>3948.306990405676</v>
       </c>
       <c r="U44" t="n">
-        <v>3860.738181773831</v>
+        <v>3694.655454772535</v>
       </c>
       <c r="V44" t="n">
-        <v>3529.67529443026</v>
+        <v>3363.592567428964</v>
       </c>
       <c r="W44" t="n">
-        <v>3176.906639160146</v>
+        <v>3010.823912158849</v>
       </c>
       <c r="X44" t="n">
-        <v>2803.440880899066</v>
+        <v>2637.35815389777</v>
       </c>
       <c r="Y44" t="n">
-        <v>2413.301548923254</v>
+        <v>2247.218821921958</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>86.11364943189743</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1286482900449</v>
+        <v>104.8187222999256</v>
       </c>
       <c r="K45" t="n">
-        <v>270.2534218466019</v>
+        <v>416.023294005564</v>
       </c>
       <c r="L45" t="n">
-        <v>831.7842531401279</v>
+        <v>977.5541252990901</v>
       </c>
       <c r="M45" t="n">
-        <v>1539.043469201745</v>
+        <v>1223.765328248207</v>
       </c>
       <c r="N45" t="n">
-        <v>1806.179794984373</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O45" t="n">
-        <v>2418.261244643319</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P45" t="n">
         <v>2577.229361417491</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>400.4338940660908</v>
+        <v>494.6215310143911</v>
       </c>
       <c r="C46" t="n">
-        <v>400.4338940660908</v>
+        <v>494.6215310143911</v>
       </c>
       <c r="D46" t="n">
-        <v>250.3172546537551</v>
+        <v>374.185233133162</v>
       </c>
       <c r="E46" t="n">
-        <v>250.3172546537551</v>
+        <v>374.185233133162</v>
       </c>
       <c r="F46" t="n">
-        <v>250.3172546537551</v>
+        <v>374.185233133162</v>
       </c>
       <c r="G46" t="n">
-        <v>250.3172546537551</v>
+        <v>205.8036107820266</v>
       </c>
       <c r="H46" t="n">
-        <v>98.0650456908354</v>
+        <v>205.8036107820266</v>
       </c>
       <c r="I46" t="n">
-        <v>86.11364943189743</v>
+        <v>88.06499559013483</v>
       </c>
       <c r="J46" t="n">
         <v>86.11364943189743</v>
@@ -7833,25 +7833,25 @@
         <v>1168.925155535959</v>
       </c>
       <c r="S46" t="n">
-        <v>1168.925155535959</v>
+        <v>965.4098873949429</v>
       </c>
       <c r="T46" t="n">
-        <v>944.2582738222898</v>
+        <v>965.4098873949429</v>
       </c>
       <c r="U46" t="n">
-        <v>655.1183822719777</v>
+        <v>676.2699958446308</v>
       </c>
       <c r="V46" t="n">
-        <v>400.4338940660908</v>
+        <v>676.2699958446308</v>
       </c>
       <c r="W46" t="n">
-        <v>400.4338940660908</v>
+        <v>676.2699958446308</v>
       </c>
       <c r="X46" t="n">
-        <v>400.4338940660908</v>
+        <v>676.2699958446308</v>
       </c>
       <c r="Y46" t="n">
-        <v>400.4338940660908</v>
+        <v>676.2699958446308</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,10 +8300,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M6" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>79.8484930083323</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.438569758332822</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,25 +9008,25 @@
         <v>6.233205181928668</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>96.12069185785035</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>68.29886828945429</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>91.32084226272465</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.43856975833285</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928668</v>
       </c>
       <c r="K21" t="n">
-        <v>56.82651903506303</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>145.318373890083</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>203.1109072212938</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>332.5079894854453</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>367.1800117126459</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>430.0150043384326</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>203.1109072212938</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>148.6064098085587</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>203.1109072212938</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>300.6179220742819</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>203.1109072212938</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>341.2289023478669</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>203.1109072212938</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>341.2289023478669</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>55.8686121112316</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>203.1109072212943</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298253</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>55.86861211123161</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>203.1109072212943</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>74.18172604171022</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>157.9091328377396</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23466,7 +23466,7 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>202.9114053470907</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>31.93087845973477</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>289.4079147166416</v>
       </c>
       <c r="X14" t="n">
-        <v>325.416785826289</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
@@ -23703,25 +23703,25 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>24.80587642279249</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>218.5131696957963</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>25.82375379412667</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>331.4952083788268</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>118.4960408938906</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>58.35886639452585</v>
       </c>
       <c r="U19" t="n">
-        <v>60.69561706280436</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>148.0333797447915</v>
       </c>
       <c r="H20" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938906</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>33.91527419608462</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>17.6958418817692</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677915</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
         <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>60.69561706280456</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>58.35886639452562</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>99.33258322459722</v>
+        <v>99.3325832245972</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>143.3258060921758</v>
+        <v>109.0992296697392</v>
       </c>
       <c r="T23" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>120.5703950634429</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.19475631551225</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,10 +24384,10 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I25" t="n">
-        <v>116.5612290399729</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J25" t="n">
-        <v>1.931832696655022</v>
+        <v>1.931832696655007</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S25" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>60.58975898307779</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>331.0463153485703</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>99.3325832245972</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T26" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>219.9029782880397</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>137.0107478116041</v>
       </c>
       <c r="G28" t="n">
         <v>166.697806127624</v>
@@ -24621,10 +24621,10 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I28" t="n">
-        <v>116.5612290399729</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J28" t="n">
-        <v>1.931832696655022</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S28" t="n">
-        <v>15.09021842302411</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T28" t="n">
         <v>222.420212896533</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>99.3325832245972</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T29" t="n">
         <v>210.475920285128</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>120.570395063442</v>
       </c>
       <c r="V29" t="n">
-        <v>13.98781566280331</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24843,25 +24843,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I31" t="n">
-        <v>116.5612290399729</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J31" t="n">
-        <v>1.931832696655022</v>
+        <v>1.931832696655007</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>201.4801154596064</v>
       </c>
       <c r="T31" t="n">
-        <v>121.6134287613464</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U31" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>4.908826193448419</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>99.33258322459722</v>
+        <v>99.3325832245972</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>120.570395063442</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>146.6198629706112</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.697806127624</v>
@@ -25095,10 +25095,10 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I34" t="n">
-        <v>116.5612290399729</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J34" t="n">
-        <v>1.931832696655022</v>
+        <v>1.931832696655007</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>201.4801154596064</v>
       </c>
       <c r="T34" t="n">
-        <v>222.420212896533</v>
+        <v>81.90799106705015</v>
       </c>
       <c r="U34" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>37.80127435020395</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>99.33258322459722</v>
+        <v>99.3325832245972</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>125.1311527233332</v>
       </c>
       <c r="V35" t="n">
-        <v>120.5703950634433</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25332,10 +25332,10 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I37" t="n">
-        <v>116.5612290399729</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J37" t="n">
-        <v>1.931832696655022</v>
+        <v>1.931832696655007</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S37" t="n">
         <v>201.4801154596064</v>
       </c>
       <c r="T37" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>81.90799106705009</v>
       </c>
       <c r="Y37" t="n">
-        <v>124.9143888514479</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>12.7811808788087</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>99.33258322459722</v>
+        <v>99.3325832245972</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.475920285128</v>
       </c>
       <c r="U38" t="n">
-        <v>120.570395063442</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,10 +25569,10 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I40" t="n">
-        <v>116.5612290399729</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.931832696655022</v>
+        <v>1.931832696655007</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>31.25046320282877</v>
+        <v>190.973062463564</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>219.9029782880397</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>208.4318128943369</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.52903383868492</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S43" t="n">
         <v>201.4801154596064</v>
       </c>
       <c r="T43" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>81.90799106705029</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>191.7743345930825</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>99.33258322459722</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>21.09609363910715</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>29.3835381157956</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7293467436243</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.931832696655022</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>691538.8177121868</v>
+        <v>691538.817712187</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>691538.817712187</v>
+        <v>691538.8177121867</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>691538.817712187</v>
+        <v>691538.8177121868</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>746227.4845079697</v>
+        <v>746227.48450797</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>746227.4845079698</v>
+        <v>746227.4845079699</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>746227.4845079697</v>
+        <v>746227.4845079699</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>746227.4845079697</v>
+        <v>746227.4845079698</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
         <v>506603.483539985</v>
       </c>
       <c r="F2" t="n">
-        <v>506603.4835399847</v>
+        <v>506603.4835399849</v>
       </c>
       <c r="G2" t="n">
-        <v>506603.4835399848</v>
+        <v>506603.483539985</v>
       </c>
       <c r="H2" t="n">
         <v>506603.4835399847</v>
@@ -26337,25 +26337,25 @@
         <v>548328.532568696</v>
       </c>
       <c r="J2" t="n">
-        <v>548328.5325686961</v>
+        <v>548328.5325686958</v>
       </c>
       <c r="K2" t="n">
         <v>548328.532568696</v>
       </c>
       <c r="L2" t="n">
-        <v>548328.5325686962</v>
+        <v>548328.5325686958</v>
       </c>
       <c r="M2" t="n">
         <v>548328.5325686961</v>
       </c>
       <c r="N2" t="n">
-        <v>548328.5325686962</v>
+        <v>548328.5325686961</v>
       </c>
       <c r="O2" t="n">
-        <v>548328.5325686961</v>
+        <v>548328.532568696</v>
       </c>
       <c r="P2" t="n">
-        <v>548328.5325686962</v>
+        <v>548328.532568696</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>133368.5290586867</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910629</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>170426.416563711</v>
+        <v>170426.4165637111</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26478,37 +26478,37 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="F5" t="n">
         <v>69171.54328360138</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="H5" t="n">
         <v>69171.54328360136</v>
       </c>
       <c r="I5" t="n">
+        <v>81079.66231700632</v>
+      </c>
+      <c r="J5" t="n">
+        <v>81079.66231700632</v>
+      </c>
+      <c r="K5" t="n">
+        <v>81079.66231700632</v>
+      </c>
+      <c r="L5" t="n">
+        <v>81079.66231700632</v>
+      </c>
+      <c r="M5" t="n">
+        <v>81079.66231700632</v>
+      </c>
+      <c r="N5" t="n">
+        <v>81079.66231700632</v>
+      </c>
+      <c r="O5" t="n">
         <v>81079.6623170063</v>
-      </c>
-      <c r="J5" t="n">
-        <v>81079.66231700631</v>
-      </c>
-      <c r="K5" t="n">
-        <v>81079.6623170063</v>
-      </c>
-      <c r="L5" t="n">
-        <v>81079.66231700631</v>
-      </c>
-      <c r="M5" t="n">
-        <v>81079.6623170063</v>
-      </c>
-      <c r="N5" t="n">
-        <v>81079.66231700631</v>
-      </c>
-      <c r="O5" t="n">
-        <v>81079.66231700631</v>
       </c>
       <c r="P5" t="n">
         <v>81079.6623170063</v>
@@ -26527,43 +26527,43 @@
         <v>271639.8413590107</v>
       </c>
       <c r="D6" t="n">
-        <v>271639.8413590105</v>
+        <v>271639.8413590106</v>
       </c>
       <c r="E6" t="n">
-        <v>-263907.2966482426</v>
+        <v>-260631.9613324958</v>
       </c>
       <c r="F6" t="n">
-        <v>417085.646013596</v>
+        <v>420360.9813293429</v>
       </c>
       <c r="G6" t="n">
-        <v>417085.646013596</v>
+        <v>420360.981329343</v>
       </c>
       <c r="H6" t="n">
-        <v>417085.6460135959</v>
+        <v>420360.9813293428</v>
       </c>
       <c r="I6" t="n">
-        <v>315792.828174427</v>
+        <v>317816.4120193125</v>
       </c>
       <c r="J6" t="n">
-        <v>386101.4146340076</v>
+        <v>388124.9984788928</v>
       </c>
       <c r="K6" t="n">
-        <v>449161.3572331138</v>
+        <v>451184.9410779992</v>
       </c>
       <c r="L6" t="n">
-        <v>449161.357233114</v>
+        <v>451184.9410779991</v>
       </c>
       <c r="M6" t="n">
-        <v>278734.9406694029</v>
+        <v>280758.5245142882</v>
       </c>
       <c r="N6" t="n">
-        <v>449161.357233114</v>
+        <v>451184.9410779993</v>
       </c>
       <c r="O6" t="n">
-        <v>449161.3572331138</v>
+        <v>451184.9410779992</v>
       </c>
       <c r="P6" t="n">
-        <v>449161.357233114</v>
+        <v>451184.9410779992</v>
       </c>
     </row>
   </sheetData>
@@ -26755,25 +26755,25 @@
         <v>593.4761003380635</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380634</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="I3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992779</v>
       </c>
       <c r="J3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992779</v>
       </c>
       <c r="K3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992779</v>
       </c>
       <c r="L3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992779</v>
       </c>
       <c r="M3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992779</v>
       </c>
       <c r="N3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992779</v>
       </c>
       <c r="O3" t="n">
         <v>717.1233370992778</v>
@@ -26798,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="F4" t="n">
         <v>924.8974390827564</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="H4" t="n">
         <v>924.8974390827563</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.6472367612145</v>
+        <v>123.6472367612143</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>683.8831502050972</v>
+        <v>683.8831502050973</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>151.5231788159616</v>
+        <v>151.5231788159618</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>683.8831502050972</v>
+        <v>683.8831502050973</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>683.8831502050972</v>
+        <v>683.8831502050973</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>270.982546889986</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>40.06664745181419</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>54.70916482169682</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27581,10 +27581,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>349.7082848322977</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27672,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>319.4393855107668</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>25.38274397678052</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>16.01434297656436</v>
       </c>
     </row>
     <row r="7">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>37.52545250819722</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.3493112058589</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>199.8391668911481</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117.2220797075721</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27991,13 +27991,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>84.15759349241048</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>109.3276159129804</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198243</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055151</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651535</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J20" t="n">
         <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779012</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L20" t="n">
-        <v>376.502430971252</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074812</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359658</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822507</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426691</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.6431848457569</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810501</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916531</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182829</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J21" t="n">
         <v>120.604421484738</v>
@@ -32557,34 +32557,34 @@
         <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512814</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842445</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900643</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947068</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671567</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q21" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080781</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S21" t="n">
-        <v>23.7110498578462</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308302</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897126</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>9.51507583820699</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784121</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490358</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790237</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889949</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676922</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441086</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714133</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P22" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104756</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937804</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S22" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522781</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390793</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32715,28 +32715,28 @@
         <v>366.7166942373559</v>
       </c>
       <c r="L23" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097259</v>
       </c>
       <c r="M23" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600345</v>
       </c>
       <c r="N23" t="n">
         <v>514.4044616963494</v>
       </c>
       <c r="O23" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866773</v>
       </c>
       <c r="P23" t="n">
-        <v>414.5657579057187</v>
+        <v>414.5657579057188</v>
       </c>
       <c r="Q23" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725815</v>
       </c>
       <c r="R23" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S23" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406955</v>
       </c>
       <c r="T23" t="n">
         <v>12.61992927900337</v>
@@ -32785,7 +32785,7 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I24" t="n">
-        <v>53.10771883235218</v>
+        <v>53.1077188323522</v>
       </c>
       <c r="J24" t="n">
         <v>145.731639664675</v>
@@ -32794,7 +32794,7 @@
         <v>249.0785839809822</v>
       </c>
       <c r="L24" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M24" t="n">
         <v>390.8322187191064</v>
@@ -32803,7 +32803,7 @@
         <v>401.1763845910385</v>
       </c>
       <c r="O24" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323069</v>
       </c>
       <c r="P24" t="n">
         <v>294.548262741777</v>
@@ -32812,13 +32812,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R24" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525832</v>
       </c>
       <c r="S24" t="n">
-        <v>28.65110691146641</v>
+        <v>28.65110691146642</v>
       </c>
       <c r="T24" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360719</v>
       </c>
       <c r="U24" t="n">
         <v>0.1014797175140488</v>
@@ -32861,13 +32861,13 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H25" t="n">
-        <v>11.49748563414908</v>
+        <v>11.49748563414909</v>
       </c>
       <c r="I25" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728544</v>
       </c>
       <c r="J25" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001777</v>
       </c>
       <c r="K25" t="n">
         <v>150.2432171824388</v>
@@ -32879,7 +32879,7 @@
         <v>202.7107819934893</v>
       </c>
       <c r="N25" t="n">
-        <v>197.8907726785598</v>
+        <v>197.8907726785599</v>
       </c>
       <c r="O25" t="n">
         <v>182.7841581183537</v>
@@ -32888,16 +32888,16 @@
         <v>156.4034242093244</v>
       </c>
       <c r="Q25" t="n">
-        <v>108.2856239019909</v>
+        <v>108.285623901991</v>
       </c>
       <c r="R25" t="n">
-        <v>58.14577090644306</v>
+        <v>58.14577090644307</v>
       </c>
       <c r="S25" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T25" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748533</v>
       </c>
       <c r="U25" t="n">
         <v>0.07053672168189626</v>
@@ -32952,28 +32952,28 @@
         <v>366.7166942373559</v>
       </c>
       <c r="L26" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097259</v>
       </c>
       <c r="M26" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600345</v>
       </c>
       <c r="N26" t="n">
         <v>514.4044616963494</v>
       </c>
       <c r="O26" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866773</v>
       </c>
       <c r="P26" t="n">
-        <v>414.5657579057187</v>
+        <v>414.5657579057188</v>
       </c>
       <c r="Q26" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725815</v>
       </c>
       <c r="R26" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S26" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406955</v>
       </c>
       <c r="T26" t="n">
         <v>12.61992927900337</v>
@@ -33022,7 +33022,7 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I27" t="n">
-        <v>53.10771883235218</v>
+        <v>53.1077188323522</v>
       </c>
       <c r="J27" t="n">
         <v>145.731639664675</v>
@@ -33031,7 +33031,7 @@
         <v>249.0785839809822</v>
       </c>
       <c r="L27" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M27" t="n">
         <v>390.8322187191064</v>
@@ -33040,7 +33040,7 @@
         <v>401.1763845910385</v>
       </c>
       <c r="O27" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323069</v>
       </c>
       <c r="P27" t="n">
         <v>294.548262741777</v>
@@ -33049,13 +33049,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R27" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525832</v>
       </c>
       <c r="S27" t="n">
-        <v>28.65110691146641</v>
+        <v>28.65110691146642</v>
       </c>
       <c r="T27" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360719</v>
       </c>
       <c r="U27" t="n">
         <v>0.1014797175140488</v>
@@ -33098,13 +33098,13 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H28" t="n">
-        <v>11.49748563414908</v>
+        <v>11.49748563414909</v>
       </c>
       <c r="I28" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728544</v>
       </c>
       <c r="J28" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001777</v>
       </c>
       <c r="K28" t="n">
         <v>150.2432171824388</v>
@@ -33116,7 +33116,7 @@
         <v>202.7107819934893</v>
       </c>
       <c r="N28" t="n">
-        <v>197.8907726785598</v>
+        <v>197.8907726785599</v>
       </c>
       <c r="O28" t="n">
         <v>182.7841581183537</v>
@@ -33125,16 +33125,16 @@
         <v>156.4034242093244</v>
       </c>
       <c r="Q28" t="n">
-        <v>108.2856239019909</v>
+        <v>108.285623901991</v>
       </c>
       <c r="R28" t="n">
-        <v>58.14577090644306</v>
+        <v>58.14577090644307</v>
       </c>
       <c r="S28" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T28" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748533</v>
       </c>
       <c r="U28" t="n">
         <v>0.07053672168189626</v>
@@ -33189,28 +33189,28 @@
         <v>366.7166942373559</v>
       </c>
       <c r="L29" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097259</v>
       </c>
       <c r="M29" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600345</v>
       </c>
       <c r="N29" t="n">
         <v>514.4044616963494</v>
       </c>
       <c r="O29" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866773</v>
       </c>
       <c r="P29" t="n">
-        <v>414.5657579057187</v>
+        <v>414.5657579057188</v>
       </c>
       <c r="Q29" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725815</v>
       </c>
       <c r="R29" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S29" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406955</v>
       </c>
       <c r="T29" t="n">
         <v>12.61992927900337</v>
@@ -33259,7 +33259,7 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I30" t="n">
-        <v>53.10771883235218</v>
+        <v>53.1077188323522</v>
       </c>
       <c r="J30" t="n">
         <v>145.731639664675</v>
@@ -33268,7 +33268,7 @@
         <v>249.0785839809822</v>
       </c>
       <c r="L30" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M30" t="n">
         <v>390.8322187191064</v>
@@ -33277,7 +33277,7 @@
         <v>401.1763845910385</v>
       </c>
       <c r="O30" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323069</v>
       </c>
       <c r="P30" t="n">
         <v>294.548262741777</v>
@@ -33286,13 +33286,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R30" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525832</v>
       </c>
       <c r="S30" t="n">
-        <v>28.65110691146641</v>
+        <v>28.65110691146642</v>
       </c>
       <c r="T30" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360719</v>
       </c>
       <c r="U30" t="n">
         <v>0.1014797175140488</v>
@@ -33335,13 +33335,13 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H31" t="n">
-        <v>11.49748563414908</v>
+        <v>11.49748563414909</v>
       </c>
       <c r="I31" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728544</v>
       </c>
       <c r="J31" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001777</v>
       </c>
       <c r="K31" t="n">
         <v>150.2432171824388</v>
@@ -33353,7 +33353,7 @@
         <v>202.7107819934893</v>
       </c>
       <c r="N31" t="n">
-        <v>197.8907726785598</v>
+        <v>197.8907726785599</v>
       </c>
       <c r="O31" t="n">
         <v>182.7841581183537</v>
@@ -33362,16 +33362,16 @@
         <v>156.4034242093244</v>
       </c>
       <c r="Q31" t="n">
-        <v>108.2856239019909</v>
+        <v>108.285623901991</v>
       </c>
       <c r="R31" t="n">
-        <v>58.14577090644306</v>
+        <v>58.14577090644307</v>
       </c>
       <c r="S31" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T31" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748533</v>
       </c>
       <c r="U31" t="n">
         <v>0.07053672168189626</v>
@@ -33426,28 +33426,28 @@
         <v>366.7166942373559</v>
       </c>
       <c r="L32" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097259</v>
       </c>
       <c r="M32" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600345</v>
       </c>
       <c r="N32" t="n">
         <v>514.4044616963494</v>
       </c>
       <c r="O32" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866773</v>
       </c>
       <c r="P32" t="n">
-        <v>414.5657579057187</v>
+        <v>414.5657579057188</v>
       </c>
       <c r="Q32" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725815</v>
       </c>
       <c r="R32" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S32" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406955</v>
       </c>
       <c r="T32" t="n">
         <v>12.61992927900337</v>
@@ -33496,7 +33496,7 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I33" t="n">
-        <v>53.10771883235218</v>
+        <v>53.1077188323522</v>
       </c>
       <c r="J33" t="n">
         <v>145.731639664675</v>
@@ -33505,7 +33505,7 @@
         <v>249.0785839809822</v>
       </c>
       <c r="L33" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M33" t="n">
         <v>390.8322187191064</v>
@@ -33514,7 +33514,7 @@
         <v>401.1763845910385</v>
       </c>
       <c r="O33" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323069</v>
       </c>
       <c r="P33" t="n">
         <v>294.548262741777</v>
@@ -33523,13 +33523,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R33" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525832</v>
       </c>
       <c r="S33" t="n">
-        <v>28.65110691146641</v>
+        <v>28.65110691146642</v>
       </c>
       <c r="T33" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360719</v>
       </c>
       <c r="U33" t="n">
         <v>0.1014797175140488</v>
@@ -33572,13 +33572,13 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H34" t="n">
-        <v>11.49748563414908</v>
+        <v>11.49748563414909</v>
       </c>
       <c r="I34" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728544</v>
       </c>
       <c r="J34" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001777</v>
       </c>
       <c r="K34" t="n">
         <v>150.2432171824388</v>
@@ -33590,7 +33590,7 @@
         <v>202.7107819934893</v>
       </c>
       <c r="N34" t="n">
-        <v>197.8907726785598</v>
+        <v>197.8907726785599</v>
       </c>
       <c r="O34" t="n">
         <v>182.7841581183537</v>
@@ -33599,16 +33599,16 @@
         <v>156.4034242093244</v>
       </c>
       <c r="Q34" t="n">
-        <v>108.2856239019909</v>
+        <v>108.285623901991</v>
       </c>
       <c r="R34" t="n">
-        <v>58.14577090644306</v>
+        <v>58.14577090644307</v>
       </c>
       <c r="S34" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T34" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748533</v>
       </c>
       <c r="U34" t="n">
         <v>0.07053672168189626</v>
@@ -33663,28 +33663,28 @@
         <v>366.7166942373559</v>
       </c>
       <c r="L35" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097259</v>
       </c>
       <c r="M35" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600345</v>
       </c>
       <c r="N35" t="n">
         <v>514.4044616963494</v>
       </c>
       <c r="O35" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866773</v>
       </c>
       <c r="P35" t="n">
-        <v>414.5657579057187</v>
+        <v>414.5657579057188</v>
       </c>
       <c r="Q35" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725815</v>
       </c>
       <c r="R35" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S35" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406955</v>
       </c>
       <c r="T35" t="n">
         <v>12.61992927900337</v>
@@ -33733,7 +33733,7 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I36" t="n">
-        <v>53.10771883235218</v>
+        <v>53.1077188323522</v>
       </c>
       <c r="J36" t="n">
         <v>145.731639664675</v>
@@ -33742,7 +33742,7 @@
         <v>249.0785839809822</v>
       </c>
       <c r="L36" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M36" t="n">
         <v>390.8322187191064</v>
@@ -33751,7 +33751,7 @@
         <v>401.1763845910385</v>
       </c>
       <c r="O36" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323069</v>
       </c>
       <c r="P36" t="n">
         <v>294.548262741777</v>
@@ -33760,13 +33760,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R36" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525832</v>
       </c>
       <c r="S36" t="n">
-        <v>28.65110691146641</v>
+        <v>28.65110691146642</v>
       </c>
       <c r="T36" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360719</v>
       </c>
       <c r="U36" t="n">
         <v>0.1014797175140488</v>
@@ -33809,13 +33809,13 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H37" t="n">
-        <v>11.49748563414908</v>
+        <v>11.49748563414909</v>
       </c>
       <c r="I37" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728544</v>
       </c>
       <c r="J37" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001777</v>
       </c>
       <c r="K37" t="n">
         <v>150.2432171824388</v>
@@ -33827,7 +33827,7 @@
         <v>202.7107819934893</v>
       </c>
       <c r="N37" t="n">
-        <v>197.8907726785598</v>
+        <v>197.8907726785599</v>
       </c>
       <c r="O37" t="n">
         <v>182.7841581183537</v>
@@ -33836,16 +33836,16 @@
         <v>156.4034242093244</v>
       </c>
       <c r="Q37" t="n">
-        <v>108.2856239019909</v>
+        <v>108.285623901991</v>
       </c>
       <c r="R37" t="n">
-        <v>58.14577090644306</v>
+        <v>58.14577090644307</v>
       </c>
       <c r="S37" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T37" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748533</v>
       </c>
       <c r="U37" t="n">
         <v>0.07053672168189626</v>
@@ -33900,28 +33900,28 @@
         <v>366.7166942373559</v>
       </c>
       <c r="L38" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097259</v>
       </c>
       <c r="M38" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600345</v>
       </c>
       <c r="N38" t="n">
         <v>514.4044616963494</v>
       </c>
       <c r="O38" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866773</v>
       </c>
       <c r="P38" t="n">
-        <v>414.5657579057187</v>
+        <v>414.5657579057188</v>
       </c>
       <c r="Q38" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725815</v>
       </c>
       <c r="R38" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S38" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406955</v>
       </c>
       <c r="T38" t="n">
         <v>12.61992927900337</v>
@@ -33970,7 +33970,7 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I39" t="n">
-        <v>53.10771883235218</v>
+        <v>53.1077188323522</v>
       </c>
       <c r="J39" t="n">
         <v>145.731639664675</v>
@@ -33979,7 +33979,7 @@
         <v>249.0785839809822</v>
       </c>
       <c r="L39" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M39" t="n">
         <v>390.8322187191064</v>
@@ -33988,7 +33988,7 @@
         <v>401.1763845910385</v>
       </c>
       <c r="O39" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323069</v>
       </c>
       <c r="P39" t="n">
         <v>294.548262741777</v>
@@ -33997,13 +33997,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R39" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525832</v>
       </c>
       <c r="S39" t="n">
-        <v>28.65110691146641</v>
+        <v>28.65110691146642</v>
       </c>
       <c r="T39" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360719</v>
       </c>
       <c r="U39" t="n">
         <v>0.1014797175140488</v>
@@ -34046,13 +34046,13 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H40" t="n">
-        <v>11.49748563414908</v>
+        <v>11.49748563414909</v>
       </c>
       <c r="I40" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728544</v>
       </c>
       <c r="J40" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001777</v>
       </c>
       <c r="K40" t="n">
         <v>150.2432171824388</v>
@@ -34064,7 +34064,7 @@
         <v>202.7107819934893</v>
       </c>
       <c r="N40" t="n">
-        <v>197.8907726785598</v>
+        <v>197.8907726785599</v>
       </c>
       <c r="O40" t="n">
         <v>182.7841581183537</v>
@@ -34073,16 +34073,16 @@
         <v>156.4034242093244</v>
       </c>
       <c r="Q40" t="n">
-        <v>108.2856239019909</v>
+        <v>108.285623901991</v>
       </c>
       <c r="R40" t="n">
-        <v>58.14577090644306</v>
+        <v>58.14577090644307</v>
       </c>
       <c r="S40" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T40" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748533</v>
       </c>
       <c r="U40" t="n">
         <v>0.07053672168189626</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>119.8578301584802</v>
       </c>
       <c r="K12" t="n">
-        <v>332.755963945262</v>
+        <v>148.1392199410157</v>
       </c>
       <c r="L12" t="n">
-        <v>138.6157555714074</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M12" t="n">
         <v>647.0155045122262</v>
@@ -35503,13 +35503,13 @@
         <v>680.0057497502846</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502625</v>
       </c>
       <c r="P12" t="n">
         <v>109.7875025528265</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.40517703305662</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.755963945262</v>
+        <v>68.29072693268336</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>138.6157555714074</v>
       </c>
       <c r="M15" t="n">
         <v>647.0155045122262</v>
       </c>
       <c r="N15" t="n">
-        <v>296.7840672645815</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>161.1235481502625</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
         <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105729</v>
+        <v>91.26547556417809</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584801</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>332.7559639452619</v>
+        <v>159.611569195408</v>
       </c>
       <c r="L18" t="n">
-        <v>138.6157555714073</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M18" t="n">
         <v>647.0155045122261</v>
@@ -35977,13 +35977,13 @@
         <v>680.0057497502846</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P18" t="n">
-        <v>109.7875025528265</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>25.40517703305662</v>
+        <v>22.96660727472377</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.545352539127</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040854</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517152</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M20" t="n">
-        <v>638.098798973041</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513591</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233093</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588822</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312121</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584801</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>125.1172459677463</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L21" t="n">
-        <v>138.6157555714072</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M21" t="n">
-        <v>647.015504512226</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N21" t="n">
         <v>680.0057497502846</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269919</v>
+        <v>306.4419220403455</v>
       </c>
       <c r="P21" t="n">
-        <v>109.7875025528264</v>
+        <v>109.7875025528265</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105728</v>
+        <v>22.9666072747238</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>186.699994849311</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295328</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233372</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O22" t="n">
-        <v>175.853429685453</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369851</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353173</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K23" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635401</v>
       </c>
       <c r="L23" t="n">
         <v>636.839286090189</v>
       </c>
       <c r="M23" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255943</v>
       </c>
       <c r="N23" t="n">
         <v>722.3383225117426</v>
       </c>
       <c r="O23" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277359</v>
       </c>
       <c r="P23" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219319</v>
       </c>
       <c r="Q23" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580367</v>
       </c>
       <c r="R23" t="n">
-        <v>31.22434466814687</v>
+        <v>31.2243446681469</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18.89401299800826</v>
+        <v>18.89401299800829</v>
       </c>
       <c r="K24" t="n">
-        <v>375.7023820192018</v>
+        <v>314.3480522279171</v>
       </c>
       <c r="L24" t="n">
-        <v>567.2028598924505</v>
+        <v>567.2028598924506</v>
       </c>
       <c r="M24" t="n">
         <v>248.6981847970881</v>
       </c>
       <c r="N24" t="n">
-        <v>269.8346725077051</v>
+        <v>269.8346725077052</v>
       </c>
       <c r="O24" t="n">
-        <v>556.9097607733077</v>
+        <v>618.2640905645919</v>
       </c>
       <c r="P24" t="n">
         <v>479.0366239673839</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.91593914923683</v>
+        <v>56.91593914923686</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36527,16 +36527,16 @@
         <v>242.2946589553299</v>
       </c>
       <c r="N25" t="n">
-        <v>242.0229450577884</v>
+        <v>242.0229450577885</v>
       </c>
       <c r="O25" t="n">
-        <v>207.3692860323933</v>
+        <v>207.3692860323934</v>
       </c>
       <c r="P25" t="n">
         <v>153.6819834742179</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029657</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K26" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635401</v>
       </c>
       <c r="L26" t="n">
         <v>636.839286090189</v>
       </c>
       <c r="M26" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255943</v>
       </c>
       <c r="N26" t="n">
         <v>722.3383225117426</v>
       </c>
       <c r="O26" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277359</v>
       </c>
       <c r="P26" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219319</v>
       </c>
       <c r="Q26" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580367</v>
       </c>
       <c r="R26" t="n">
-        <v>31.22434466814687</v>
+        <v>31.2243446681469</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>144.9850483384171</v>
       </c>
       <c r="K27" t="n">
-        <v>375.7023820192018</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L27" t="n">
-        <v>196.3625145889914</v>
+        <v>563.5425263016374</v>
       </c>
       <c r="M27" t="n">
-        <v>714.403248547088</v>
+        <v>248.6981847970881</v>
       </c>
       <c r="N27" t="n">
-        <v>699.8496768461378</v>
+        <v>269.8346725077052</v>
       </c>
       <c r="O27" t="n">
-        <v>224.4017712878624</v>
+        <v>224.4017712878625</v>
       </c>
       <c r="P27" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673839</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.91593914923683</v>
+        <v>266.993226885086</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36764,16 +36764,16 @@
         <v>242.2946589553299</v>
       </c>
       <c r="N28" t="n">
-        <v>242.0229450577884</v>
+        <v>242.0229450577885</v>
       </c>
       <c r="O28" t="n">
-        <v>207.3692860323933</v>
+        <v>207.3692860323934</v>
       </c>
       <c r="P28" t="n">
         <v>153.6819834742179</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029657</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K29" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635401</v>
       </c>
       <c r="L29" t="n">
         <v>636.839286090189</v>
       </c>
       <c r="M29" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255943</v>
       </c>
       <c r="N29" t="n">
         <v>722.3383225117426</v>
       </c>
       <c r="O29" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277359</v>
       </c>
       <c r="P29" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219319</v>
       </c>
       <c r="Q29" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580367</v>
       </c>
       <c r="R29" t="n">
-        <v>31.22434466814687</v>
+        <v>31.2243446681469</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18.89401299800826</v>
+        <v>18.89401299800829</v>
       </c>
       <c r="K30" t="n">
-        <v>375.7023820192018</v>
+        <v>314.3480522279171</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3625145889914</v>
+        <v>567.2028598924506</v>
       </c>
       <c r="M30" t="n">
         <v>248.6981847970881</v>
       </c>
       <c r="N30" t="n">
-        <v>749.1770468512586</v>
+        <v>269.8346725077052</v>
       </c>
       <c r="O30" t="n">
         <v>618.2640905645919</v>
       </c>
       <c r="P30" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673839</v>
       </c>
       <c r="Q30" t="n">
-        <v>205.5223489577955</v>
+        <v>56.91593914923686</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37001,16 +37001,16 @@
         <v>242.2946589553299</v>
       </c>
       <c r="N31" t="n">
-        <v>242.0229450577884</v>
+        <v>242.0229450577885</v>
       </c>
       <c r="O31" t="n">
-        <v>207.3692860323933</v>
+        <v>207.3692860323934</v>
       </c>
       <c r="P31" t="n">
         <v>153.6819834742179</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029657</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K32" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635401</v>
       </c>
       <c r="L32" t="n">
         <v>636.839286090189</v>
       </c>
       <c r="M32" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255943</v>
       </c>
       <c r="N32" t="n">
         <v>722.3383225117426</v>
       </c>
       <c r="O32" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277359</v>
       </c>
       <c r="P32" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219319</v>
       </c>
       <c r="Q32" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580367</v>
       </c>
       <c r="R32" t="n">
-        <v>31.22434466814687</v>
+        <v>31.2243446681469</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>144.9850483384171</v>
+        <v>18.89401299800829</v>
       </c>
       <c r="K33" t="n">
-        <v>111.2371450066232</v>
+        <v>314.3480522279171</v>
       </c>
       <c r="L33" t="n">
-        <v>196.3625145889914</v>
+        <v>567.2028598924506</v>
       </c>
       <c r="M33" t="n">
-        <v>714.403248547088</v>
+        <v>248.6981847970881</v>
       </c>
       <c r="N33" t="n">
-        <v>269.8346725077051</v>
+        <v>269.8346725077052</v>
       </c>
       <c r="O33" t="n">
         <v>618.2640905645919</v>
       </c>
       <c r="P33" t="n">
-        <v>461.1917774017286</v>
+        <v>479.0366239673839</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.91593914923683</v>
+        <v>56.91593914923686</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37238,16 +37238,16 @@
         <v>242.2946589553299</v>
       </c>
       <c r="N34" t="n">
-        <v>242.0229450577884</v>
+        <v>242.0229450577885</v>
       </c>
       <c r="O34" t="n">
-        <v>207.3692860323933</v>
+        <v>207.3692860323934</v>
       </c>
       <c r="P34" t="n">
         <v>153.6819834742179</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029657</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K35" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635401</v>
       </c>
       <c r="L35" t="n">
         <v>636.839286090189</v>
       </c>
       <c r="M35" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255943</v>
       </c>
       <c r="N35" t="n">
         <v>722.3383225117426</v>
       </c>
       <c r="O35" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277359</v>
       </c>
       <c r="P35" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219319</v>
       </c>
       <c r="Q35" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580367</v>
       </c>
       <c r="R35" t="n">
-        <v>31.22434466814687</v>
+        <v>31.2243446681469</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>18.89401299800826</v>
+        <v>18.89401299800829</v>
       </c>
       <c r="K36" t="n">
-        <v>111.2371450066232</v>
+        <v>314.3480522279171</v>
       </c>
       <c r="L36" t="n">
-        <v>196.3625145889914</v>
+        <v>567.2028598924506</v>
       </c>
       <c r="M36" t="n">
-        <v>714.403248547088</v>
+        <v>248.6981847970881</v>
       </c>
       <c r="N36" t="n">
-        <v>749.1770468512586</v>
+        <v>269.8346725077052</v>
       </c>
       <c r="O36" t="n">
-        <v>565.6306736357293</v>
+        <v>618.2640905645919</v>
       </c>
       <c r="P36" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673839</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.91593914923683</v>
+        <v>56.91593914923686</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37475,16 +37475,16 @@
         <v>242.2946589553299</v>
       </c>
       <c r="N37" t="n">
-        <v>242.0229450577884</v>
+        <v>242.0229450577885</v>
       </c>
       <c r="O37" t="n">
-        <v>207.3692860323933</v>
+        <v>207.3692860323934</v>
       </c>
       <c r="P37" t="n">
         <v>153.6819834742179</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029657</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K38" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635401</v>
       </c>
       <c r="L38" t="n">
         <v>636.839286090189</v>
       </c>
       <c r="M38" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255943</v>
       </c>
       <c r="N38" t="n">
         <v>722.3383225117426</v>
       </c>
       <c r="O38" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277359</v>
       </c>
       <c r="P38" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219319</v>
       </c>
       <c r="Q38" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580367</v>
       </c>
       <c r="R38" t="n">
-        <v>31.22434466814687</v>
+        <v>31.2243446681469</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>18.89401299800826</v>
+        <v>18.89401299800829</v>
       </c>
       <c r="K39" t="n">
-        <v>111.2371450066232</v>
+        <v>314.3480522279171</v>
       </c>
       <c r="L39" t="n">
-        <v>196.3625145889914</v>
+        <v>567.2028598924506</v>
       </c>
       <c r="M39" t="n">
-        <v>714.403248547088</v>
+        <v>248.6981847970881</v>
       </c>
       <c r="N39" t="n">
-        <v>749.1770468512586</v>
+        <v>269.8346725077052</v>
       </c>
       <c r="O39" t="n">
-        <v>565.6306736357293</v>
+        <v>618.2640905645919</v>
       </c>
       <c r="P39" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673839</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.91593914923683</v>
+        <v>56.91593914923686</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37712,16 +37712,16 @@
         <v>242.2946589553299</v>
       </c>
       <c r="N40" t="n">
-        <v>242.0229450577884</v>
+        <v>242.0229450577885</v>
       </c>
       <c r="O40" t="n">
-        <v>207.3692860323933</v>
+        <v>207.3692860323934</v>
       </c>
       <c r="P40" t="n">
         <v>153.6819834742179</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029657</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>74.76262510923986</v>
+        <v>18.89401299800826</v>
       </c>
       <c r="K42" t="n">
-        <v>111.2371450066232</v>
+        <v>314.3480522279175</v>
       </c>
       <c r="L42" t="n">
         <v>567.2028598924505</v>
       </c>
       <c r="M42" t="n">
-        <v>714.403248547088</v>
+        <v>248.6981847970881</v>
       </c>
       <c r="N42" t="n">
         <v>269.8346725077051</v>
@@ -37876,7 +37876,7 @@
         <v>618.2640905645919</v>
       </c>
       <c r="P42" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673839</v>
       </c>
       <c r="Q42" t="n">
         <v>56.91593914923683</v>
@@ -38040,7 +38040,7 @@
         <v>301.3309199580366</v>
       </c>
       <c r="R44" t="n">
-        <v>31.22434466814687</v>
+        <v>31.22434466814696</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>74.76262510923988</v>
+        <v>18.89401299800826</v>
       </c>
       <c r="K45" t="n">
-        <v>111.2371450066232</v>
+        <v>314.3480522279175</v>
       </c>
       <c r="L45" t="n">
         <v>567.2028598924505</v>
       </c>
       <c r="M45" t="n">
-        <v>714.403248547088</v>
+        <v>248.6981847970881</v>
       </c>
       <c r="N45" t="n">
         <v>269.8346725077051</v>
@@ -38113,7 +38113,7 @@
         <v>618.2640905645919</v>
       </c>
       <c r="P45" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673839</v>
       </c>
       <c r="Q45" t="n">
         <v>56.91593914923683</v>
